--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/27Sept2013_Xining_Physioflow_X27X32/X32 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/27Sept2013_Xining_Physioflow_X27X32/X32 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -93,30 +93,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>45w</t>
-  </si>
-  <si>
-    <t>90w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>135w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
-    <t>105 W</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -161,29 +137,396 @@
   <si>
     <t>Avg EDFR</t>
   </si>
+  <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
+    <t>45w</t>
+  </si>
+  <si>
+    <t>90w</t>
+  </si>
+  <si>
+    <t>105 W</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
+    <t>135w</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,20 +534,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,6 +844,1176 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.69</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.06</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.53</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.64</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.53</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.91</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.73</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.02</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.33</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.81</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.37</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.03</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.59</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.24</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.64</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="259675666"/>
+        <c:axId val="400481936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="259675666"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400481936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="400481936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259675666"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>391160</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2608580" y="11445240"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,21 +2297,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" workbookViewId="0">
-      <selection activeCell="AI55" sqref="AI55"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -531,7 +2333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -590,57 +2392,57 @@
         <v>24</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AG4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.97535879629629629</v>
+        <v>0.975358796296296</v>
       </c>
       <c r="C6">
         <v>82</v>
@@ -679,7 +2481,7 @@
         <v>1574</v>
       </c>
       <c r="O6">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="P6">
         <v>97</v>
@@ -688,12 +2490,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.97547453703703713</v>
+        <v>0.975474537037037</v>
       </c>
       <c r="C7">
         <v>82</v>
@@ -732,7 +2534,7 @@
         <v>1534</v>
       </c>
       <c r="O7">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="P7">
         <v>102</v>
@@ -741,31 +2543,31 @@
         <v>35</v>
       </c>
       <c r="S7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U7">
         <f>AVERAGE(C6:C17)</f>
-        <v>76.083333333333329</v>
+        <v>76.0833333333333</v>
       </c>
       <c r="V7">
         <f t="shared" ref="V7:AI7" si="0">AVERAGE(D6:D17)</f>
-        <v>72.583333333333329</v>
+        <v>72.5833333333333</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>5.5916666666666659</v>
+        <v>5.59166666666667</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>3.8599999999999994</v>
+        <v>3.86</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>65.083333333333329</v>
+        <v>65.0833333333333</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>468.16666666666669</v>
+        <v>468.166666666667</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
@@ -777,39 +2579,39 @@
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>73.583333333333329</v>
+        <v>73.5833333333333</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>111.08333333333333</v>
+        <v>111.083333333333</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>1189.9166666666667</v>
+        <v>1189.91666666667</v>
       </c>
       <c r="AF7">
         <f t="shared" si="0"/>
-        <v>1722.8333333333333</v>
+        <v>1722.83333333333</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>4.4283333333333337</v>
+        <v>4.42833333333333</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>105.66666666666667</v>
+        <v>105.666666666667</v>
       </c>
       <c r="AI7">
         <f t="shared" si="0"/>
-        <v>36.666666666666664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+        <v>36.6666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.97559027777777774</v>
+        <v>0.975590277777778</v>
       </c>
       <c r="C8">
         <v>79</v>
@@ -857,12 +2659,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.97570601851851846</v>
+        <v>0.975706018518518</v>
       </c>
       <c r="C9">
         <v>77</v>
@@ -901,7 +2703,7 @@
         <v>1652</v>
       </c>
       <c r="O9">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="P9">
         <v>108</v>
@@ -910,12 +2712,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.97582175925925929</v>
+        <v>0.975821759259259</v>
       </c>
       <c r="C10">
         <v>75</v>
@@ -963,12 +2765,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.97593750000000001</v>
+        <v>0.9759375</v>
       </c>
       <c r="C11">
         <v>74</v>
@@ -1016,12 +2818,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.97605324074074085</v>
+        <v>0.976053240740741</v>
       </c>
       <c r="C12">
         <v>75</v>
@@ -1069,12 +2871,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.97616898148148146</v>
+        <v>0.976168981481481</v>
       </c>
       <c r="C13">
         <v>74</v>
@@ -1122,12 +2924,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.97628472222222218</v>
+        <v>0.976284722222222</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -1166,7 +2968,7 @@
         <v>1744</v>
       </c>
       <c r="O14">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="P14">
         <v>109</v>
@@ -1175,12 +2977,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.97640046296296301</v>
+        <v>0.976400462962963</v>
       </c>
       <c r="C15">
         <v>73</v>
@@ -1228,12 +3030,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.97651620370370373</v>
+        <v>0.976516203703704</v>
       </c>
       <c r="C16">
         <v>74</v>
@@ -1281,12 +3083,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.97663194444444434</v>
+        <v>0.976631944444444</v>
       </c>
       <c r="C17">
         <v>74</v>
@@ -1334,12 +3136,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.97674768518518518</v>
+        <v>0.976747685185185</v>
       </c>
       <c r="C18">
         <v>75</v>
@@ -1387,12 +3189,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.9768634259259259</v>
+        <v>0.976863425925926</v>
       </c>
       <c r="C19">
         <v>74</v>
@@ -1440,12 +3242,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.97697916666666673</v>
+        <v>0.976979166666667</v>
       </c>
       <c r="C20">
         <v>79</v>
@@ -1493,12 +3295,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.97709490740740745</v>
+        <v>0.977094907407407</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1510,7 +3312,7 @@
         <v>6.74</v>
       </c>
       <c r="F21">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="G21">
         <v>66</v>
@@ -1546,12 +3348,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.97721064814814806</v>
+        <v>0.977210648148148</v>
       </c>
       <c r="C22">
         <v>82</v>
@@ -1599,15 +3401,15 @@
         <v>33</v>
       </c>
       <c r="S22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.9773263888888889</v>
+        <v>0.977326388888889</v>
       </c>
       <c r="C23">
         <v>99</v>
@@ -1655,12 +3457,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.97744212962962962</v>
+        <v>0.97744212962963</v>
       </c>
       <c r="C24">
         <v>106</v>
@@ -1708,12 +3510,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.97755787037037034</v>
+        <v>0.97755787037037</v>
       </c>
       <c r="C25">
         <v>110</v>
@@ -1722,7 +3524,7 @@
         <v>84</v>
       </c>
       <c r="E25">
-        <v>9.3699999999999992</v>
+        <v>9.37</v>
       </c>
       <c r="F25">
         <v>6.47</v>
@@ -1761,12 +3563,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.97767361111111117</v>
+        <v>0.977673611111111</v>
       </c>
       <c r="C26">
         <v>111</v>
@@ -1814,12 +3616,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.97778935185185178</v>
+        <v>0.977789351851852</v>
       </c>
       <c r="C27">
         <v>109</v>
@@ -1867,12 +3669,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.97790509259259262</v>
+        <v>0.977905092592593</v>
       </c>
       <c r="C28">
         <v>114</v>
@@ -1920,12 +3722,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.97802083333333334</v>
+        <v>0.978020833333333</v>
       </c>
       <c r="C29">
         <v>116</v>
@@ -1973,12 +3775,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.97813657407407406</v>
+        <v>0.978136574074074</v>
       </c>
       <c r="C30">
         <v>119</v>
@@ -2026,12 +3828,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.97825231481481489</v>
+        <v>0.978252314814815</v>
       </c>
       <c r="C31">
         <v>119</v>
@@ -2079,12 +3881,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.9783680555555555</v>
+        <v>0.978368055555556</v>
       </c>
       <c r="C32">
         <v>119</v>
@@ -2123,7 +3925,7 @@
         <v>934</v>
       </c>
       <c r="O32">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="P32">
         <v>102</v>
@@ -2132,12 +3934,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.97848379629629623</v>
+        <v>0.978483796296296</v>
       </c>
       <c r="C33">
         <v>122</v>
@@ -2185,12 +3987,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.97859953703703706</v>
+        <v>0.978599537037037</v>
       </c>
       <c r="C34">
         <v>124</v>
@@ -2238,12 +4040,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.97871527777777778</v>
+        <v>0.978715277777778</v>
       </c>
       <c r="C35">
         <v>124</v>
@@ -2291,12 +4093,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.97883101851851861</v>
+        <v>0.978831018518519</v>
       </c>
       <c r="C36">
         <v>126</v>
@@ -2344,12 +4146,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.97894675925925922</v>
+        <v>0.978946759259259</v>
       </c>
       <c r="C37">
         <v>125</v>
@@ -2397,12 +4199,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.97906249999999995</v>
+        <v>0.9790625</v>
       </c>
       <c r="C38">
         <v>128</v>
@@ -2450,12 +4252,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.97917824074074078</v>
+        <v>0.979178240740741</v>
       </c>
       <c r="C39">
         <v>131</v>
@@ -2503,15 +4305,15 @@
         <v>31</v>
       </c>
       <c r="S39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.9792939814814815</v>
+        <v>0.979293981481482</v>
       </c>
       <c r="C40">
         <v>133</v>
@@ -2559,12 +4361,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.97940972222222233</v>
+        <v>0.979409722222222</v>
       </c>
       <c r="C41">
         <v>139</v>
@@ -2612,12 +4414,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.97952546296296295</v>
+        <v>0.979525462962963</v>
       </c>
       <c r="C42">
         <v>146</v>
@@ -2665,12 +4467,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.97964120370370367</v>
+        <v>0.979641203703704</v>
       </c>
       <c r="C43">
         <v>150</v>
@@ -2682,7 +4484,7 @@
         <v>12.73</v>
       </c>
       <c r="F43">
-        <v>8.7899999999999991</v>
+        <v>8.79</v>
       </c>
       <c r="G43">
         <v>69</v>
@@ -2718,15 +4520,15 @@
         <v>35</v>
       </c>
       <c r="S43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.9797569444444445</v>
+        <v>0.979756944444444</v>
       </c>
       <c r="C44">
         <v>153</v>
@@ -2774,12 +4576,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.97987268518518522</v>
+        <v>0.979872685185185</v>
       </c>
       <c r="C45">
         <v>158</v>
@@ -2827,12 +4629,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.97998842592592583</v>
+        <v>0.979988425925926</v>
       </c>
       <c r="C46">
         <v>161</v>
@@ -2844,7 +4646,7 @@
         <v>14.8</v>
       </c>
       <c r="F46">
-        <v>10.220000000000001</v>
+        <v>10.22</v>
       </c>
       <c r="G46">
         <v>70</v>
@@ -2880,12 +4682,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.98010416666666667</v>
+        <v>0.980104166666667</v>
       </c>
       <c r="C47">
         <v>164</v>
@@ -2933,7 +4735,7 @@
         <v>40</v>
       </c>
       <c r="S47" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="U47">
         <f>AVERAGE(C47:C50)</f>
@@ -2945,7 +4747,7 @@
       </c>
       <c r="W47">
         <f t="shared" si="1"/>
-        <v>15.450000000000001</v>
+        <v>15.45</v>
       </c>
       <c r="X47">
         <f t="shared" si="1"/>
@@ -2996,12 +4798,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.98021990740740739</v>
+        <v>0.980219907407407</v>
       </c>
       <c r="C48">
         <v>167</v>
@@ -3049,12 +4851,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.98033564814814822</v>
+        <v>0.980335648148148</v>
       </c>
       <c r="C49">
         <v>169</v>
@@ -3102,12 +4904,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.98045138888888894</v>
+        <v>0.980451388888889</v>
       </c>
       <c r="C50">
         <v>171</v>
@@ -3155,12 +4957,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.98056712962962955</v>
+        <v>0.98056712962963</v>
       </c>
       <c r="C51">
         <v>172</v>
@@ -3208,12 +5010,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.98068287037037039</v>
+        <v>0.98068287037037</v>
       </c>
       <c r="C52">
         <v>170</v>
@@ -3261,7 +5063,7 @@
         <v>54</v>
       </c>
       <c r="S52" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="U52">
         <f>AVERAGE(C53:C55)</f>
@@ -3269,15 +5071,15 @@
       </c>
       <c r="V52">
         <f t="shared" ref="V52:AI52" si="2">AVERAGE(D53:D55)</f>
-        <v>85.333333333333329</v>
+        <v>85.3333333333333</v>
       </c>
       <c r="W52">
         <f t="shared" si="2"/>
-        <v>14.586666666666668</v>
+        <v>14.5866666666667</v>
       </c>
       <c r="X52">
         <f t="shared" si="2"/>
-        <v>10.073333333333332</v>
+        <v>10.0733333333333</v>
       </c>
       <c r="Y52">
         <f t="shared" si="2"/>
@@ -3297,23 +5099,23 @@
       </c>
       <c r="AC52">
         <f t="shared" si="2"/>
-        <v>73.666666666666671</v>
+        <v>73.6666666666667</v>
       </c>
       <c r="AD52">
         <f t="shared" si="2"/>
-        <v>130.66666666666666</v>
+        <v>130.666666666667</v>
       </c>
       <c r="AE52">
         <f t="shared" si="2"/>
-        <v>471.33333333333331</v>
+        <v>471.333333333333</v>
       </c>
       <c r="AF52">
         <f t="shared" si="2"/>
-        <v>682.66666666666663</v>
+        <v>682.666666666667</v>
       </c>
       <c r="AG52">
         <f t="shared" si="2"/>
-        <v>11.556666666666667</v>
+        <v>11.5566666666667</v>
       </c>
       <c r="AH52">
         <f t="shared" si="2"/>
@@ -3321,15 +5123,15 @@
       </c>
       <c r="AI52">
         <f t="shared" si="2"/>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+        <v>83.3333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.98079861111111111</v>
+        <v>0.980798611111111</v>
       </c>
       <c r="C53">
         <v>176</v>
@@ -3386,11 +5188,11 @@
       </c>
       <c r="W53">
         <f t="shared" si="3"/>
-        <v>13.750000000000002</v>
+        <v>13.75</v>
       </c>
       <c r="X53">
         <f t="shared" si="3"/>
-        <v>9.4949999999999992</v>
+        <v>9.495</v>
       </c>
       <c r="Y53">
         <f t="shared" si="3"/>
@@ -3437,12 +5239,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.98091435185185183</v>
+        <v>0.980914351851852</v>
       </c>
       <c r="C54">
         <v>174</v>
@@ -3490,12 +5292,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.98103009259259266</v>
+        <v>0.981030092592593</v>
       </c>
       <c r="C55">
         <v>160</v>
@@ -3543,12 +5345,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.98114583333333327</v>
+        <v>0.981145833333333</v>
       </c>
       <c r="C56">
         <v>137</v>
@@ -3596,12 +5398,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.98126157407407411</v>
+        <v>0.981261574074074</v>
       </c>
       <c r="C57">
         <v>141</v>
@@ -3649,15 +5451,15 @@
         <v>423</v>
       </c>
       <c r="S57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.98137731481481483</v>
+        <v>0.981377314814815</v>
       </c>
       <c r="C58">
         <v>170</v>
@@ -3705,12 +5507,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B59" s="1">
-        <v>0.98149305555555555</v>
+        <v>0.981493055555556</v>
       </c>
       <c r="C59">
         <v>165</v>
@@ -3758,12 +5560,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>0.98160879629629638</v>
+        <v>0.981608796296296</v>
       </c>
       <c r="C60">
         <v>170</v>
@@ -3811,36 +5613,46 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/27Sept2013_Xining_Physioflow_X27X32/X32 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/27Sept2013_Xining_Physioflow_X27X32/X32 at 2200.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\27Sept2013_Xining_Physioflow_X27X32\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FE4407-48D3-4740-9528-BFC10DC5F60F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -165,14 +179,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,352 +189,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -534,322 +212,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -861,7 +254,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -887,6 +279,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -911,179 +304,176 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="55"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
-                  <c:v>0.000115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000231481481481481</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.000578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.000694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.000810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.000925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00127314814814815</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00138888888888889</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00150462962962963</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00162037037037037</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00173611111111111</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00185185185185185</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00196759259259259</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00219907407407407</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00231481481481482</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00243055555555556</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.0025462962962963</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00266203703703704</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00277777777777778</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00289351851851852</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00300925925925926</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.003125</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00324074074074074</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00335648148148148</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00358796296296296</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.0037037037037037</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.00381944444444444</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00393518518518519</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00405092592592593</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00428240740740741</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00439814814814815</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00451388888888889</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00474537037037037</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00486111111111111</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00497685185185185</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00509259259259259</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00532407407407407</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00543981481481481</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.0056712962962963</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.00578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00590277777777778</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00601851851851852</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.00613425925925926</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="h:mm:ss">
-                  <c:v>0.00625</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="h:mm:ss">
-                  <c:v>0.00636574074074074</c:v>
+                <c:pt idx="0">
+                  <c:v>1.15740740740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31481481481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4722222222222202E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6296296296296298E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9444444444444404E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1018518518518505E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2592592592592596E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0416666666666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.27314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5046296296296301E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9675925925925898E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1990740740740699E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3148148148148199E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5462962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.66203703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8935185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3564814814814798E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5879629629629599E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.93518518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.05092592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2824074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7453703703703703E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9768518518518504E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4398148148148097E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.7870370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1342592592592603E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3657407407407404E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,7 +542,7 @@
                   <c:v>8.69</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.37</c:v>
+                  <c:v>9.3699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>9.66</c:v>
@@ -1263,6 +653,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCAB-450A-8CFA-FD296AEEDEAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1272,7 +667,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="259675666"/>
         <c:axId val="400481936"/>
@@ -1284,6 +678,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1317,6 +712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400481936"/>
@@ -1375,6 +771,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="259675666"/>
@@ -1415,6 +812,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1982,7 +1380,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1996,14 +1394,20 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2608580" y="11445240"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2297,21 +1701,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="S52" sqref="S52"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2437,12 +1841,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>0.000115740740740741</v>
+        <v>1.15740740740741E-4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.975358796296296</v>
+        <v>0.97535879629629596</v>
       </c>
       <c r="C6">
         <v>82</v>
@@ -2481,7 +1885,7 @@
         <v>1574</v>
       </c>
       <c r="O6">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="P6">
         <v>97</v>
@@ -2492,10 +1896,10 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.000231481481481481</v>
+        <v>2.31481481481481E-4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.975474537037037</v>
+        <v>0.97547453703703701</v>
       </c>
       <c r="C7">
         <v>82</v>
@@ -2534,7 +1938,7 @@
         <v>1534</v>
       </c>
       <c r="O7">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="P7">
         <v>102</v>
@@ -2547,27 +1951,27 @@
       </c>
       <c r="U7">
         <f>AVERAGE(C6:C17)</f>
-        <v>76.0833333333333</v>
+        <v>76.083333333333329</v>
       </c>
       <c r="V7">
         <f t="shared" ref="V7:AI7" si="0">AVERAGE(D6:D17)</f>
-        <v>72.5833333333333</v>
+        <v>72.583333333333329</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>5.59166666666667</v>
+        <v>5.5916666666666659</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>3.86</v>
+        <v>3.8599999999999994</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>65.0833333333333</v>
+        <v>65.083333333333329</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>468.166666666667</v>
+        <v>468.16666666666669</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
@@ -2579,39 +1983,39 @@
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>73.5833333333333</v>
+        <v>73.583333333333329</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>111.083333333333</v>
+        <v>111.08333333333333</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>1189.91666666667</v>
+        <v>1189.9166666666667</v>
       </c>
       <c r="AF7">
         <f t="shared" si="0"/>
-        <v>1722.83333333333</v>
+        <v>1722.8333333333333</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>4.42833333333333</v>
+        <v>4.4283333333333337</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>105.666666666667</v>
+        <v>105.66666666666667</v>
       </c>
       <c r="AI7">
         <f t="shared" si="0"/>
-        <v>36.6666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>36.666666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.000347222222222222</v>
+        <v>3.4722222222222202E-4</v>
       </c>
       <c r="B8" s="1">
-        <v>0.975590277777778</v>
+        <v>0.97559027777777796</v>
       </c>
       <c r="C8">
         <v>79</v>
@@ -2659,12 +2063,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.000462962962962963</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.975706018518518</v>
+        <v>0.97570601851851801</v>
       </c>
       <c r="C9">
         <v>77</v>
@@ -2703,7 +2107,7 @@
         <v>1652</v>
       </c>
       <c r="O9">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P9">
         <v>108</v>
@@ -2712,12 +2116,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.000578703703703704</v>
+        <v>5.78703703703704E-4</v>
       </c>
       <c r="B10" s="1">
-        <v>0.975821759259259</v>
+        <v>0.97582175925925896</v>
       </c>
       <c r="C10">
         <v>75</v>
@@ -2765,12 +2169,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.000694444444444444</v>
+        <v>6.9444444444444404E-4</v>
       </c>
       <c r="B11" s="1">
-        <v>0.9759375</v>
+        <v>0.97593750000000001</v>
       </c>
       <c r="C11">
         <v>74</v>
@@ -2818,12 +2222,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.000810185185185185</v>
+        <v>8.1018518518518505E-4</v>
       </c>
       <c r="B12" s="1">
-        <v>0.976053240740741</v>
+        <v>0.97605324074074096</v>
       </c>
       <c r="C12">
         <v>75</v>
@@ -2871,12 +2275,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.000925925925925926</v>
+        <v>9.2592592592592596E-4</v>
       </c>
       <c r="B13" s="1">
-        <v>0.976168981481481</v>
+        <v>0.97616898148148101</v>
       </c>
       <c r="C13">
         <v>74</v>
@@ -2924,12 +2328,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00104166666666667</v>
+        <v>1.0416666666666699E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.976284722222222</v>
+        <v>0.97628472222222196</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -2968,7 +2372,7 @@
         <v>1744</v>
       </c>
       <c r="O14">
-        <v>4.36</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="P14">
         <v>109</v>
@@ -2977,12 +2381,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00115740740740741</v>
+        <v>1.1574074074074099E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>0.976400462962963</v>
+        <v>0.97640046296296301</v>
       </c>
       <c r="C15">
         <v>73</v>
@@ -3030,12 +2434,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.00127314814814815</v>
+        <v>1.27314814814815E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.976516203703704</v>
+        <v>0.97651620370370396</v>
       </c>
       <c r="C16">
         <v>74</v>
@@ -3083,12 +2487,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
-        <v>0.00138888888888889</v>
+        <v>1.38888888888889E-3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.976631944444444</v>
+        <v>0.97663194444444401</v>
       </c>
       <c r="C17">
         <v>74</v>
@@ -3136,12 +2540,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
-        <v>0.00150462962962963</v>
+        <v>1.5046296296296301E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.976747685185185</v>
+        <v>0.97674768518518496</v>
       </c>
       <c r="C18">
         <v>75</v>
@@ -3189,12 +2593,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
-        <v>0.00162037037037037</v>
+        <v>1.6203703703703701E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.976863425925926</v>
+        <v>0.97686342592592601</v>
       </c>
       <c r="C19">
         <v>74</v>
@@ -3242,12 +2646,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
-        <v>0.00173611111111111</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.976979166666667</v>
+        <v>0.97697916666666695</v>
       </c>
       <c r="C20">
         <v>79</v>
@@ -3295,12 +2699,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
-        <v>0.00185185185185185</v>
+        <v>1.85185185185185E-3</v>
       </c>
       <c r="B21" s="1">
-        <v>0.977094907407407</v>
+        <v>0.97709490740740701</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -3312,7 +2716,7 @@
         <v>6.74</v>
       </c>
       <c r="F21">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G21">
         <v>66</v>
@@ -3350,10 +2754,10 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1">
-        <v>0.00196759259259259</v>
+        <v>1.9675925925925898E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.977210648148148</v>
+        <v>0.97721064814814795</v>
       </c>
       <c r="C22">
         <v>82</v>
@@ -3404,12 +2808,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
-        <v>0.00208333333333333</v>
+        <v>2.0833333333333298E-3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.977326388888889</v>
+        <v>0.97732638888888901</v>
       </c>
       <c r="C23">
         <v>99</v>
@@ -3457,12 +2861,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
-        <v>0.00219907407407407</v>
+        <v>2.1990740740740699E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.97744212962963</v>
+        <v>0.97744212962962995</v>
       </c>
       <c r="C24">
         <v>106</v>
@@ -3510,12 +2914,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
-        <v>0.00231481481481482</v>
+        <v>2.3148148148148199E-3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.97755787037037</v>
+        <v>0.97755787037037001</v>
       </c>
       <c r="C25">
         <v>110</v>
@@ -3524,7 +2928,7 @@
         <v>84</v>
       </c>
       <c r="E25">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F25">
         <v>6.47</v>
@@ -3563,12 +2967,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
-        <v>0.00243055555555556</v>
+        <v>2.4305555555555599E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.977673611111111</v>
+        <v>0.97767361111111095</v>
       </c>
       <c r="C26">
         <v>111</v>
@@ -3616,12 +3020,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
-        <v>0.0025462962962963</v>
+        <v>2.5462962962963E-3</v>
       </c>
       <c r="B27" s="1">
-        <v>0.977789351851852</v>
+        <v>0.97778935185185201</v>
       </c>
       <c r="C27">
         <v>109</v>
@@ -3669,12 +3073,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
-        <v>0.00266203703703704</v>
+        <v>2.66203703703704E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.977905092592593</v>
+        <v>0.97790509259259295</v>
       </c>
       <c r="C28">
         <v>114</v>
@@ -3722,12 +3126,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
-        <v>0.00277777777777778</v>
+        <v>2.7777777777777801E-3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.978020833333333</v>
+        <v>0.97802083333333301</v>
       </c>
       <c r="C29">
         <v>116</v>
@@ -3775,12 +3179,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
-        <v>0.00289351851851852</v>
+        <v>2.8935185185185201E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.978136574074074</v>
+        <v>0.97813657407407395</v>
       </c>
       <c r="C30">
         <v>119</v>
@@ -3828,9 +3232,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
-        <v>0.00300925925925926</v>
+        <v>3.0092592592592601E-3</v>
       </c>
       <c r="B31" s="1">
         <v>0.978252314814815</v>
@@ -3881,12 +3285,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.978368055555556</v>
+        <v>0.97836805555555595</v>
       </c>
       <c r="C32">
         <v>119</v>
@@ -3925,7 +3329,7 @@
         <v>934</v>
       </c>
       <c r="O32">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="P32">
         <v>102</v>
@@ -3934,9 +3338,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>0.00324074074074074</v>
+        <v>3.2407407407407402E-3</v>
       </c>
       <c r="B33" s="1">
         <v>0.978483796296296</v>
@@ -3987,12 +3391,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>0.00335648148148148</v>
+        <v>3.3564814814814798E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.978599537037037</v>
+        <v>0.97859953703703695</v>
       </c>
       <c r="C34">
         <v>124</v>
@@ -4040,9 +3444,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>0.00347222222222222</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="B35" s="1">
         <v>0.978715277777778</v>
@@ -4093,12 +3497,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>0.00358796296296296</v>
+        <v>3.5879629629629599E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.978831018518519</v>
+        <v>0.97883101851851895</v>
       </c>
       <c r="C36">
         <v>126</v>
@@ -4146,9 +3550,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>0.0037037037037037</v>
+        <v>3.7037037037036999E-3</v>
       </c>
       <c r="B37" s="1">
         <v>0.978946759259259</v>
@@ -4199,12 +3603,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>0.00381944444444444</v>
+        <v>3.81944444444444E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.9790625</v>
+        <v>0.97906249999999995</v>
       </c>
       <c r="C38">
         <v>128</v>
@@ -4252,9 +3656,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>0.00393518518518519</v>
+        <v>3.93518518518519E-3</v>
       </c>
       <c r="B39" s="1">
         <v>0.979178240740741</v>
@@ -4308,12 +3712,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>0.00405092592592593</v>
+        <v>4.05092592592593E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.979293981481482</v>
+        <v>0.97929398148148195</v>
       </c>
       <c r="C40">
         <v>133</v>
@@ -4361,9 +3765,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>0.00416666666666667</v>
+        <v>4.1666666666666701E-3</v>
       </c>
       <c r="B41" s="1">
         <v>0.979409722222222</v>
@@ -4414,12 +3818,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>0.00428240740740741</v>
+        <v>4.2824074074074101E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.979525462962963</v>
+        <v>0.97952546296296295</v>
       </c>
       <c r="C42">
         <v>146</v>
@@ -4467,9 +3871,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>0.00439814814814815</v>
+        <v>4.3981481481481502E-3</v>
       </c>
       <c r="B43" s="1">
         <v>0.979641203703704</v>
@@ -4484,7 +3888,7 @@
         <v>12.73</v>
       </c>
       <c r="F43">
-        <v>8.79</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="G43">
         <v>69</v>
@@ -4523,12 +3927,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>0.00451388888888889</v>
+        <v>4.5138888888888902E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.979756944444444</v>
+        <v>0.97975694444444394</v>
       </c>
       <c r="C44">
         <v>153</v>
@@ -4576,9 +3980,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>0.00462962962962963</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="B45" s="1">
         <v>0.979872685185185</v>
@@ -4629,12 +4033,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>0.00474537037037037</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.979988425925926</v>
+        <v>0.97998842592592605</v>
       </c>
       <c r="C46">
         <v>161</v>
@@ -4646,7 +4050,7 @@
         <v>14.8</v>
       </c>
       <c r="F46">
-        <v>10.22</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G46">
         <v>70</v>
@@ -4684,7 +4088,7 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>0.00486111111111111</v>
+        <v>4.8611111111111103E-3</v>
       </c>
       <c r="B47" s="1">
         <v>0.980104166666667</v>
@@ -4747,7 +4151,7 @@
       </c>
       <c r="W47">
         <f t="shared" si="1"/>
-        <v>15.45</v>
+        <v>15.450000000000001</v>
       </c>
       <c r="X47">
         <f t="shared" si="1"/>
@@ -4798,12 +4202,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>0.00497685185185185</v>
+        <v>4.9768518518518504E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.980219907407407</v>
+        <v>0.98021990740740705</v>
       </c>
       <c r="C48">
         <v>167</v>
@@ -4851,9 +4255,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>0.00509259259259259</v>
+        <v>5.0925925925925904E-3</v>
       </c>
       <c r="B49" s="1">
         <v>0.980335648148148</v>
@@ -4864,7 +4268,7 @@
       <c r="D49">
         <v>90</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>15.33</v>
       </c>
       <c r="F49">
@@ -4904,12 +4308,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>0.00520833333333333</v>
+        <v>5.2083333333333296E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.980451388888889</v>
+        <v>0.98045138888888905</v>
       </c>
       <c r="C50">
         <v>171</v>
@@ -4917,7 +4321,7 @@
       <c r="D50">
         <v>92</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>15.81</v>
       </c>
       <c r="F50">
@@ -4957,9 +4361,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>0.00532407407407407</v>
+        <v>5.3240740740740696E-3</v>
       </c>
       <c r="B51" s="1">
         <v>0.98056712962963</v>
@@ -4970,7 +4374,7 @@
       <c r="D51">
         <v>87</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>15.14</v>
       </c>
       <c r="F51">
@@ -5012,10 +4416,10 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>0.00543981481481481</v>
+        <v>5.4398148148148097E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.98068287037037</v>
+        <v>0.98068287037037005</v>
       </c>
       <c r="C52">
         <v>170</v>
@@ -5023,7 +4427,7 @@
       <c r="D52">
         <v>84</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>14.37</v>
       </c>
       <c r="F52">
@@ -5071,15 +4475,15 @@
       </c>
       <c r="V52">
         <f t="shared" ref="V52:AI52" si="2">AVERAGE(D53:D55)</f>
-        <v>85.3333333333333</v>
+        <v>85.333333333333329</v>
       </c>
       <c r="W52">
         <f t="shared" si="2"/>
-        <v>14.5866666666667</v>
+        <v>14.586666666666668</v>
       </c>
       <c r="X52">
         <f t="shared" si="2"/>
-        <v>10.0733333333333</v>
+        <v>10.073333333333332</v>
       </c>
       <c r="Y52">
         <f t="shared" si="2"/>
@@ -5099,23 +4503,23 @@
       </c>
       <c r="AC52">
         <f t="shared" si="2"/>
-        <v>73.6666666666667</v>
+        <v>73.666666666666671</v>
       </c>
       <c r="AD52">
         <f t="shared" si="2"/>
-        <v>130.666666666667</v>
+        <v>130.66666666666666</v>
       </c>
       <c r="AE52">
         <f t="shared" si="2"/>
-        <v>471.333333333333</v>
+        <v>471.33333333333331</v>
       </c>
       <c r="AF52">
         <f t="shared" si="2"/>
-        <v>682.666666666667</v>
+        <v>682.66666666666663</v>
       </c>
       <c r="AG52">
         <f t="shared" si="2"/>
-        <v>11.5566666666667</v>
+        <v>11.556666666666667</v>
       </c>
       <c r="AH52">
         <f t="shared" si="2"/>
@@ -5123,12 +4527,12 @@
       </c>
       <c r="AI52">
         <f t="shared" si="2"/>
-        <v>83.3333333333333</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>0.00555555555555556</v>
+        <v>5.5555555555555601E-3</v>
       </c>
       <c r="B53" s="1">
         <v>0.980798611111111</v>
@@ -5188,11 +4592,11 @@
       </c>
       <c r="W53">
         <f t="shared" si="3"/>
-        <v>13.75</v>
+        <v>13.750000000000002</v>
       </c>
       <c r="X53">
         <f t="shared" si="3"/>
-        <v>9.495</v>
+        <v>9.4949999999999992</v>
       </c>
       <c r="Y53">
         <f t="shared" si="3"/>
@@ -5239,12 +4643,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>0.0056712962962963</v>
+        <v>5.6712962962963001E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.980914351851852</v>
+        <v>0.98091435185185205</v>
       </c>
       <c r="C54">
         <v>174</v>
@@ -5292,12 +4696,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>0.00578703703703704</v>
+        <v>5.7870370370370402E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.981030092592593</v>
+        <v>0.98103009259259299</v>
       </c>
       <c r="C55">
         <v>160</v>
@@ -5345,12 +4749,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>0.00590277777777778</v>
+        <v>5.9027777777777802E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.981145833333333</v>
+        <v>0.98114583333333305</v>
       </c>
       <c r="C56">
         <v>137</v>
@@ -5398,12 +4802,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>0.00601851851851852</v>
+        <v>6.0185185185185203E-3</v>
       </c>
       <c r="B57" s="1">
-        <v>0.981261574074074</v>
+        <v>0.98126157407407399</v>
       </c>
       <c r="C57">
         <v>141</v>
@@ -5454,12 +4858,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>0.00613425925925926</v>
+        <v>6.1342592592592603E-3</v>
       </c>
       <c r="B58" s="1">
-        <v>0.981377314814815</v>
+        <v>0.98137731481481505</v>
       </c>
       <c r="C58">
         <v>170</v>
@@ -5507,12 +4911,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>0.00625</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="B59" s="1">
-        <v>0.981493055555556</v>
+        <v>0.98149305555555599</v>
       </c>
       <c r="C59">
         <v>165</v>
@@ -5560,12 +4964,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>0.00636574074074074</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="B60" s="1">
-        <v>0.981608796296296</v>
+        <v>0.98160879629629605</v>
       </c>
       <c r="C60">
         <v>170</v>
@@ -5613,46 +5017,37 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:35">
       <c r="A62" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>